--- a/UnityProject/AlpoLib.Unity/Assets/Sample/TableData/Excel/Character.xlsx
+++ b/UnityProject/AlpoLib.Unity/Assets/Sample/TableData/Excel/Character.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\core-library-management\Assets\Samples\LocalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E9121-ED52-4DCF-BDF3-4A401F2D0537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{204E7606-A6A8-4C92-8A86-E74A2F814C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3885" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{D6B55083-CB5F-4665-B199-B6EA88FD46F8}"/>
+    <workbookView xWindow="3375" yWindow="3885" windowWidth="28800" windowHeight="15345" firstSheet="2" xr2:uid="{D6B55083-CB5F-4665-B199-B6EA88FD46F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp" sheetId="1" r:id="rId1"/>
     <sheet name="Level" sheetId="3" r:id="rId2"/>
     <sheet name="AwakeningCost" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,10 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="9">
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Id</t>
   </si>
   <si>
     <t>grade</t>
@@ -53,10 +52,10 @@
     <t>exp</t>
   </si>
   <si>
-    <t>status</t>
+    <t>IsActive</t>
   </si>
   <si>
-    <t>status</t>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,24 +69,12 @@
     <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,19 +433,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0D8971-5126-41F3-8B73-A7EC914B265E}">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -470,10 +457,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,10 +474,10 @@
         <v>800</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,10 +491,10 @@
         <v>845</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -521,10 +508,10 @@
         <v>890</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -538,10 +525,10 @@
         <v>935</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -555,10 +542,10 @@
         <v>980</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -572,10 +559,10 @@
         <v>1025</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -589,10 +576,10 @@
         <v>1070</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -606,10 +593,10 @@
         <v>1115</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -623,10 +610,10 @@
         <v>1160</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -640,10 +627,10 @@
         <v>1205</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -657,10 +644,10 @@
         <v>1800</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -674,10 +661,10 @@
         <v>1845</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -691,10 +678,10 @@
         <v>1890</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -708,10 +695,10 @@
         <v>1935</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -725,10 +712,10 @@
         <v>1980</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -742,10 +729,10 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -759,10 +746,10 @@
         <v>2070</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -776,10 +763,10 @@
         <v>2115</v>
       </c>
       <c r="E19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -793,10 +780,10 @@
         <v>2160</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -810,10 +797,10 @@
         <v>2205</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -827,10 +814,10 @@
         <v>2250</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -844,10 +831,10 @@
         <v>2295</v>
       </c>
       <c r="E23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -861,10 +848,10 @@
         <v>2340</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -878,10 +865,10 @@
         <v>2385</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -895,10 +882,10 @@
         <v>2430</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -912,10 +899,10 @@
         <v>2475</v>
       </c>
       <c r="E27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -929,10 +916,10 @@
         <v>2520</v>
       </c>
       <c r="E28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -946,10 +933,10 @@
         <v>2565</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -963,10 +950,10 @@
         <v>2610</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -980,10 +967,10 @@
         <v>2655</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -997,10 +984,10 @@
         <v>3800</v>
       </c>
       <c r="E32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1014,10 +1001,10 @@
         <v>3845</v>
       </c>
       <c r="E33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1031,10 +1018,10 @@
         <v>3890</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1048,10 +1035,10 @@
         <v>3935</v>
       </c>
       <c r="E35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1065,10 +1052,10 @@
         <v>3980</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1082,10 +1069,10 @@
         <v>4025</v>
       </c>
       <c r="E37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1099,10 +1086,10 @@
         <v>4070</v>
       </c>
       <c r="E38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1116,10 +1103,10 @@
         <v>4115</v>
       </c>
       <c r="E39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1133,10 +1120,10 @@
         <v>4160</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1150,10 +1137,10 @@
         <v>4205</v>
       </c>
       <c r="E41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1167,10 +1154,10 @@
         <v>4250</v>
       </c>
       <c r="E42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1184,10 +1171,10 @@
         <v>4295</v>
       </c>
       <c r="E43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1201,10 +1188,10 @@
         <v>4340</v>
       </c>
       <c r="E44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1218,10 +1205,10 @@
         <v>4385</v>
       </c>
       <c r="E45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1235,10 +1222,10 @@
         <v>4430</v>
       </c>
       <c r="E46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1252,10 +1239,10 @@
         <v>4475</v>
       </c>
       <c r="E47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1269,10 +1256,10 @@
         <v>4520</v>
       </c>
       <c r="E48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1286,10 +1273,10 @@
         <v>4565</v>
       </c>
       <c r="E49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1303,10 +1290,10 @@
         <v>4610</v>
       </c>
       <c r="E50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1320,10 +1307,10 @@
         <v>4655</v>
       </c>
       <c r="E51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1337,10 +1324,10 @@
         <v>4700</v>
       </c>
       <c r="E52" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1354,10 +1341,10 @@
         <v>4745</v>
       </c>
       <c r="E53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1371,10 +1358,10 @@
         <v>4790</v>
       </c>
       <c r="E54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1388,10 +1375,10 @@
         <v>4835</v>
       </c>
       <c r="E55" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1405,10 +1392,10 @@
         <v>4880</v>
       </c>
       <c r="E56" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1422,10 +1409,10 @@
         <v>4925</v>
       </c>
       <c r="E57" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1439,10 +1426,10 @@
         <v>4970</v>
       </c>
       <c r="E58" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1456,10 +1443,10 @@
         <v>5015</v>
       </c>
       <c r="E59" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1473,10 +1460,10 @@
         <v>5060</v>
       </c>
       <c r="E60" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1490,10 +1477,10 @@
         <v>5105</v>
       </c>
       <c r="E61" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1507,10 +1494,10 @@
         <v>8200</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1524,10 +1511,10 @@
         <v>8245</v>
       </c>
       <c r="E63" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1541,10 +1528,10 @@
         <v>8290</v>
       </c>
       <c r="E64" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1558,10 +1545,10 @@
         <v>8335</v>
       </c>
       <c r="E65" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1575,10 +1562,10 @@
         <v>8380</v>
       </c>
       <c r="E66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1592,10 +1579,10 @@
         <v>8425</v>
       </c>
       <c r="E67" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1609,10 +1596,10 @@
         <v>8470</v>
       </c>
       <c r="E68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1626,10 +1613,10 @@
         <v>8515</v>
       </c>
       <c r="E69" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1643,10 +1630,10 @@
         <v>8560</v>
       </c>
       <c r="E70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1660,10 +1647,10 @@
         <v>8605</v>
       </c>
       <c r="E71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1677,10 +1664,10 @@
         <v>8650</v>
       </c>
       <c r="E72" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1694,10 +1681,10 @@
         <v>8695</v>
       </c>
       <c r="E73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1711,10 +1698,10 @@
         <v>8740</v>
       </c>
       <c r="E74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1728,10 +1715,10 @@
         <v>8785</v>
       </c>
       <c r="E75" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1745,10 +1732,10 @@
         <v>8830</v>
       </c>
       <c r="E76" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1762,10 +1749,10 @@
         <v>8875</v>
       </c>
       <c r="E77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1779,10 +1766,10 @@
         <v>8920</v>
       </c>
       <c r="E78" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1796,10 +1783,10 @@
         <v>8965</v>
       </c>
       <c r="E79" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1813,10 +1800,10 @@
         <v>9010</v>
       </c>
       <c r="E80" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1830,10 +1817,10 @@
         <v>9055</v>
       </c>
       <c r="E81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1847,10 +1834,10 @@
         <v>9100</v>
       </c>
       <c r="E82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1864,10 +1851,10 @@
         <v>9145</v>
       </c>
       <c r="E83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1881,10 +1868,10 @@
         <v>9190</v>
       </c>
       <c r="E84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1898,10 +1885,10 @@
         <v>9235</v>
       </c>
       <c r="E85" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1915,10 +1902,10 @@
         <v>9280</v>
       </c>
       <c r="E86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1932,10 +1919,10 @@
         <v>9325</v>
       </c>
       <c r="E87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1949,10 +1936,10 @@
         <v>9370</v>
       </c>
       <c r="E88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1966,10 +1953,10 @@
         <v>9415</v>
       </c>
       <c r="E89" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1983,10 +1970,10 @@
         <v>9460</v>
       </c>
       <c r="E90" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2000,10 +1987,10 @@
         <v>9505</v>
       </c>
       <c r="E91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2017,10 +2004,10 @@
         <v>9550</v>
       </c>
       <c r="E92" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2034,10 +2021,10 @@
         <v>9595</v>
       </c>
       <c r="E93" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2051,10 +2038,10 @@
         <v>9640</v>
       </c>
       <c r="E94" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2068,10 +2055,10 @@
         <v>9685</v>
       </c>
       <c r="E95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2085,10 +2072,10 @@
         <v>9730</v>
       </c>
       <c r="E96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2102,10 +2089,10 @@
         <v>9775</v>
       </c>
       <c r="E97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2119,10 +2106,10 @@
         <v>9820</v>
       </c>
       <c r="E98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2136,10 +2123,10 @@
         <v>9865</v>
       </c>
       <c r="E99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2153,10 +2140,10 @@
         <v>9910</v>
       </c>
       <c r="E100" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2170,10 +2157,10 @@
         <v>9955</v>
       </c>
       <c r="E101" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2187,10 +2174,10 @@
         <v>19400</v>
       </c>
       <c r="E102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2204,10 +2191,10 @@
         <v>19445</v>
       </c>
       <c r="E103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2221,10 +2208,10 @@
         <v>19490</v>
       </c>
       <c r="E104" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2238,10 +2225,10 @@
         <v>19535</v>
       </c>
       <c r="E105" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2255,10 +2242,10 @@
         <v>19580</v>
       </c>
       <c r="E106" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2272,10 +2259,10 @@
         <v>19625</v>
       </c>
       <c r="E107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2289,10 +2276,10 @@
         <v>19670</v>
       </c>
       <c r="E108" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2306,10 +2293,10 @@
         <v>19715</v>
       </c>
       <c r="E109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2323,10 +2310,10 @@
         <v>19760</v>
       </c>
       <c r="E110" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2340,10 +2327,10 @@
         <v>19805</v>
       </c>
       <c r="E111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2357,10 +2344,10 @@
         <v>19850</v>
       </c>
       <c r="E112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2374,10 +2361,10 @@
         <v>19895</v>
       </c>
       <c r="E113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2391,10 +2378,10 @@
         <v>19940</v>
       </c>
       <c r="E114" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2408,10 +2395,10 @@
         <v>19985</v>
       </c>
       <c r="E115" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2425,10 +2412,10 @@
         <v>20030</v>
       </c>
       <c r="E116" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2442,10 +2429,10 @@
         <v>20075</v>
       </c>
       <c r="E117" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2459,10 +2446,10 @@
         <v>20120</v>
       </c>
       <c r="E118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2476,10 +2463,10 @@
         <v>20165</v>
       </c>
       <c r="E119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2493,10 +2480,10 @@
         <v>20210</v>
       </c>
       <c r="E120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2510,10 +2497,10 @@
         <v>20255</v>
       </c>
       <c r="E121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2527,10 +2514,10 @@
         <v>20300</v>
       </c>
       <c r="E122" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2544,10 +2531,10 @@
         <v>20345</v>
       </c>
       <c r="E123" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2561,10 +2548,10 @@
         <v>20390</v>
       </c>
       <c r="E124" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2578,10 +2565,10 @@
         <v>20435</v>
       </c>
       <c r="E125" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2595,10 +2582,10 @@
         <v>20480</v>
       </c>
       <c r="E126" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2612,10 +2599,10 @@
         <v>20525</v>
       </c>
       <c r="E127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2629,10 +2616,10 @@
         <v>20570</v>
       </c>
       <c r="E128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2646,10 +2633,10 @@
         <v>20615</v>
       </c>
       <c r="E129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2663,10 +2650,10 @@
         <v>20660</v>
       </c>
       <c r="E130" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2680,10 +2667,10 @@
         <v>20705</v>
       </c>
       <c r="E131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2697,10 +2684,10 @@
         <v>20750</v>
       </c>
       <c r="E132" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2714,10 +2701,10 @@
         <v>20795</v>
       </c>
       <c r="E133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2731,10 +2718,10 @@
         <v>20840</v>
       </c>
       <c r="E134" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2748,10 +2735,10 @@
         <v>20885</v>
       </c>
       <c r="E135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2765,10 +2752,10 @@
         <v>20930</v>
       </c>
       <c r="E136" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2782,10 +2769,10 @@
         <v>20975</v>
       </c>
       <c r="E137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2799,10 +2786,10 @@
         <v>21020</v>
       </c>
       <c r="E138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2816,10 +2803,10 @@
         <v>21065</v>
       </c>
       <c r="E139" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2833,10 +2820,10 @@
         <v>21110</v>
       </c>
       <c r="E140" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2850,10 +2837,10 @@
         <v>21155</v>
       </c>
       <c r="E141" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2867,10 +2854,10 @@
         <v>21200</v>
       </c>
       <c r="E142" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2884,10 +2871,10 @@
         <v>21245</v>
       </c>
       <c r="E143" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2901,10 +2888,10 @@
         <v>21290</v>
       </c>
       <c r="E144" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2918,10 +2905,10 @@
         <v>21335</v>
       </c>
       <c r="E145" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2935,10 +2922,10 @@
         <v>21380</v>
       </c>
       <c r="E146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2952,10 +2939,10 @@
         <v>21425</v>
       </c>
       <c r="E147" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2969,10 +2956,10 @@
         <v>21470</v>
       </c>
       <c r="E148" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2986,10 +2973,10 @@
         <v>21515</v>
       </c>
       <c r="E149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3003,10 +2990,10 @@
         <v>21560</v>
       </c>
       <c r="E150" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3020,10 +3007,10 @@
         <v>21605</v>
       </c>
       <c r="E151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3037,10 +3024,10 @@
         <v>48500</v>
       </c>
       <c r="E152" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3054,10 +3041,10 @@
         <v>48545</v>
       </c>
       <c r="E153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3071,10 +3058,10 @@
         <v>48590</v>
       </c>
       <c r="E154" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3088,10 +3075,10 @@
         <v>48635</v>
       </c>
       <c r="E155" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3105,10 +3092,10 @@
         <v>48680</v>
       </c>
       <c r="E156" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3122,10 +3109,10 @@
         <v>48725</v>
       </c>
       <c r="E157" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3139,10 +3126,10 @@
         <v>48770</v>
       </c>
       <c r="E158" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3156,10 +3143,10 @@
         <v>48815</v>
       </c>
       <c r="E159" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3173,10 +3160,10 @@
         <v>48860</v>
       </c>
       <c r="E160" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3190,10 +3177,10 @@
         <v>48905</v>
       </c>
       <c r="E161" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3207,10 +3194,10 @@
         <v>48950</v>
       </c>
       <c r="E162" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3224,10 +3211,10 @@
         <v>48995</v>
       </c>
       <c r="E163" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3241,10 +3228,10 @@
         <v>49040</v>
       </c>
       <c r="E164" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3258,10 +3245,10 @@
         <v>49085</v>
       </c>
       <c r="E165" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3275,10 +3262,10 @@
         <v>49130</v>
       </c>
       <c r="E166" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3292,10 +3279,10 @@
         <v>49175</v>
       </c>
       <c r="E167" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3309,10 +3296,10 @@
         <v>49220</v>
       </c>
       <c r="E168" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3326,10 +3313,10 @@
         <v>49265</v>
       </c>
       <c r="E169" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3343,10 +3330,10 @@
         <v>49310</v>
       </c>
       <c r="E170" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3360,10 +3347,10 @@
         <v>49355</v>
       </c>
       <c r="E171" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3377,10 +3364,10 @@
         <v>49400</v>
       </c>
       <c r="E172" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3394,10 +3381,10 @@
         <v>49445</v>
       </c>
       <c r="E173" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3411,10 +3398,10 @@
         <v>49490</v>
       </c>
       <c r="E174" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3428,10 +3415,10 @@
         <v>49535</v>
       </c>
       <c r="E175" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3445,10 +3432,10 @@
         <v>49580</v>
       </c>
       <c r="E176" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3462,10 +3449,10 @@
         <v>49625</v>
       </c>
       <c r="E177" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3479,10 +3466,10 @@
         <v>49670</v>
       </c>
       <c r="E178" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3496,10 +3483,10 @@
         <v>49715</v>
       </c>
       <c r="E179" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3513,10 +3500,10 @@
         <v>49760</v>
       </c>
       <c r="E180" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3530,10 +3517,10 @@
         <v>49805</v>
       </c>
       <c r="E181" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3547,10 +3534,10 @@
         <v>49850</v>
       </c>
       <c r="E182" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3564,10 +3551,10 @@
         <v>49895</v>
       </c>
       <c r="E183" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3581,10 +3568,10 @@
         <v>49940</v>
       </c>
       <c r="E184" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3598,10 +3585,10 @@
         <v>49985</v>
       </c>
       <c r="E185" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3615,10 +3602,10 @@
         <v>50030</v>
       </c>
       <c r="E186" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3632,10 +3619,10 @@
         <v>50075</v>
       </c>
       <c r="E187" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3649,10 +3636,10 @@
         <v>50120</v>
       </c>
       <c r="E188" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3666,10 +3653,10 @@
         <v>50165</v>
       </c>
       <c r="E189" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3683,10 +3670,10 @@
         <v>50210</v>
       </c>
       <c r="E190" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3700,10 +3687,10 @@
         <v>50255</v>
       </c>
       <c r="E191" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3717,10 +3704,10 @@
         <v>50300</v>
       </c>
       <c r="E192" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3734,10 +3721,10 @@
         <v>50345</v>
       </c>
       <c r="E193" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3751,10 +3738,10 @@
         <v>50390</v>
       </c>
       <c r="E194" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3768,10 +3755,10 @@
         <v>50435</v>
       </c>
       <c r="E195" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3785,10 +3772,10 @@
         <v>50480</v>
       </c>
       <c r="E196" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3802,10 +3789,10 @@
         <v>50525</v>
       </c>
       <c r="E197" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3819,10 +3806,10 @@
         <v>50570</v>
       </c>
       <c r="E198" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3836,10 +3823,10 @@
         <v>50615</v>
       </c>
       <c r="E199" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3853,10 +3840,10 @@
         <v>50660</v>
       </c>
       <c r="E200" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3870,10 +3857,10 @@
         <v>50705</v>
       </c>
       <c r="E201" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3887,10 +3874,10 @@
         <v>50750</v>
       </c>
       <c r="E202" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3904,10 +3891,10 @@
         <v>50795</v>
       </c>
       <c r="E203" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3921,10 +3908,10 @@
         <v>50840</v>
       </c>
       <c r="E204" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3938,10 +3925,10 @@
         <v>50885</v>
       </c>
       <c r="E205" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3955,10 +3942,10 @@
         <v>50930</v>
       </c>
       <c r="E206" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3972,10 +3959,10 @@
         <v>50975</v>
       </c>
       <c r="E207" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3989,10 +3976,10 @@
         <v>51020</v>
       </c>
       <c r="E208" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4006,10 +3993,10 @@
         <v>51065</v>
       </c>
       <c r="E209" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4023,10 +4010,10 @@
         <v>51110</v>
       </c>
       <c r="E210" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4040,7 +4027,7 @@
         <v>51155</v>
       </c>
       <c r="E211" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4054,14 +4041,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4073,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4087,7 +4074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4101,7 +4088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4115,7 +4102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4129,7 +4116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4143,7 +4130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4167,13 +4154,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F4E2C6-B627-4FE3-A7B8-F0DFC6234725}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -4182,10 +4171,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4196,10 +4185,10 @@
         <v>5000</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4210,10 +4199,10 @@
         <v>18000</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4224,10 +4213,10 @@
         <v>37500</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4238,10 +4227,10 @@
         <v>105000</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4252,7 +4241,7 @@
         <v>350000</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
